--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RATUL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C65DEF81-C43F-4907-82D5-725364DDD6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACD56BD-27E0-4517-8626-A2D48E73A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Test ID</t>
   </si>
@@ -145,6 +145,113 @@
 3. Enter password:
 Ratul143
 4. Click on Sign in button</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Login shouldn't work with the empty User and valid password.</t>
+  </si>
+  <si>
+    <t>User name: 
+Password:
+Ratul143</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://app.vwo.com/#/login
+2. Don't Enter Email address: 
+3. Enter password:
+Ratul143
+4. Click on Sign in button</t>
+  </si>
+  <si>
+    <t>Login shouldn't work and an error message should be displayed as "Your email, password, IP address or location did not match"</t>
+  </si>
+  <si>
+    <t>Login is not working with error message displaying as "Your email, password, IP address or location did not match"</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Verify that the Login shouldn't work with the valid User and empty password.</t>
+  </si>
+  <si>
+    <t>User name:
+ratul.tester@gmail.com 
+Password:</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://app.vwo.com/#/login
+2. Enter Email address:
+ratul.tester@gmail.com
+3. Don't Enter password:
+4. Click on Sign in button</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>Verify that the forgot password? Link is working fine.</t>
+  </si>
+  <si>
+    <t>Click on forgot password? Link</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://app.vwo.com/#/login
+2. Click on Forgot Password? Link</t>
+  </si>
+  <si>
+    <t>Clicking on forgot password? Link it should redirect to forgot password page i.e., https://app.vwo.com/#/forgot-password</t>
+  </si>
+  <si>
+    <t>On clicking it redirected to forgot password page i.e., https://app.vwo.com/#/forgot-password</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Verify that the remember me checkbox is working fine.</t>
+  </si>
+  <si>
+    <t>User name: ratul.tester@gmail.com
+Password:
+Ratul143
+Click on remember me checkbox</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://app.vwo.com/#/login
+2. Enter Email address: ratul.tester@gmail.com
+3. Enter password:
+Ratul143
+4. Click on Remember me checkbox
+5. Click on Sign in button
+6. After sign in logout from Dashboard.</t>
+  </si>
+  <si>
+    <t>On Login Page the username should still displayed in the Email Address field.</t>
+  </si>
+  <si>
+    <t>In Login Page the username displayed in the Email Address field.</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>Verify that the Start a free trial Link is working fine.</t>
+  </si>
+  <si>
+    <t>Click on Start a free trial link.</t>
+  </si>
+  <si>
+    <t>1. Navigate to https://app.vwo.com/#/login
+2. Click on Start a free trial link.</t>
+  </si>
+  <si>
+    <t>Clicking on Start a free trial Link it should redirect to free sign up page i.e., https://vwo.com/free-trial/?utm_medium=website&amp;utm_source=login-page&amp;utm_campaign=mof_eg_loginpage</t>
+  </si>
+  <si>
+    <t>On clicking, it redirected to free sign up page i.e., https://vwo.com/free-trial/?utm_medium=website&amp;utm_source=login-page&amp;utm_campaign=mof_eg_loginpage</t>
   </si>
 </sst>
 </file>
@@ -504,7 +611,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +621,7 @@
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="8" width="19.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.140625" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" customWidth="1"/>
     <col min="10" max="12" width="12.7109375" customWidth="1"/>
   </cols>
@@ -671,77 +778,197 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -755,7 +982,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -769,7 +996,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -783,7 +1010,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -797,7 +1024,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -811,7 +1038,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -825,7 +1052,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -839,7 +1066,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -853,7 +1080,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -867,7 +1094,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -881,7 +1108,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -895,7 +1122,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -909,7 +1136,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -923,7 +1150,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -937,7 +1164,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -951,7 +1178,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -965,7 +1192,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -979,7 +1206,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -993,7 +1220,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1007,7 +1234,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1021,7 +1248,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1035,7 +1262,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1049,7 +1276,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1063,7 +1290,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1077,7 +1304,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1091,7 +1318,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1105,7 +1332,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1119,7 +1346,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1133,7 +1360,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1147,7 +1374,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1161,7 +1388,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1175,7 +1402,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1189,7 +1416,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1203,7 +1430,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1217,7 +1444,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1231,7 +1458,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1245,7 +1472,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1259,7 +1486,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1273,7 +1500,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1287,7 +1514,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1301,7 +1528,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1315,7 +1542,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1329,7 +1556,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1343,7 +1570,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1357,7 +1584,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1371,7 +1598,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1385,7 +1612,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1399,7 +1626,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1413,7 +1640,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1427,7 +1654,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1441,7 +1668,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1455,7 +1682,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1469,7 +1696,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1483,7 +1710,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1497,7 +1724,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1511,7 +1738,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1525,7 +1752,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1539,7 +1766,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1553,7 +1780,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1567,7 +1794,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1581,7 +1808,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1596,6 +1823,7 @@
       <c r="L70" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="A3ye9ioeOcMSeGjjLS5xdYg69oyNgKp28ISVFdNKF9jUHlFiPZOwW9n9HS/w7VhySfJPZYn0/YSqGmBlGlIQcg==" saltValue="P2lOumOqg+Ij9l74J7d8BQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>